--- a/data-251019.xlsx
+++ b/data-251019.xlsx
@@ -4109,7 +4109,7 @@
       </c>
       <c r="FN5" t="inlineStr">
         <is>
-          <t>ООП с анемичной доменной моделью (сущности содержат только геттеры/сеттеры, а бизнес-логика помещается в классы сервисов или их аналогов. Типично для классических проектов на Java/C#)</t>
+          <t>ООП с богатой доменной моделью (бизнес логика по максимуму переносится в агрегаты/сущности. Типично для проектов по DDD на Java/C#)</t>
         </is>
       </c>
       <c r="FO5" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="FN6" t="inlineStr">
         <is>
-          <t>Процедурная/императивная (Go, ранние версии PHP, в ООП языках - обилие статических методов)</t>
+          <t>Мультипарадигменная с преобладанием функционального стиля (используется функциональный подход (иммутабельность, свободные функции), но допускается императивность там, где так проще. Типично для Kotlin, Rust, Clojure)</t>
         </is>
       </c>
       <c r="FO6" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="FN8" t="inlineStr">
         <is>
-          <t>ООП с анемичной доменной моделью (сущности содержат только геттеры/сеттеры, а бизнес-логика помещается в классы сервисов или их аналогов. Типично для классических проектов на Java/C#)</t>
+          <t>Мультипарадигменная с преобладанием функционального стиля (используется функциональный подход (иммутабельность, свободные функции), но допускается императивность там, где так проще. Типично для Kotlin, Rust, Clojure)</t>
         </is>
       </c>
       <c r="FO8" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="FN11" t="inlineStr">
         <is>
-          <t>Мультипарадигменная с преобладанием функционального стиля (используется функциональный подход (иммутабельность, свободные функции), но допускается императивность там, где так проще. Типично для Kotlin, Rust, Clojure)</t>
+          <t>Чисто функциональная (100% классов неизменяемые, весь ввод-вывод через монады, отсутствие методов классов. Типично для Haskell, Scala, F#)</t>
         </is>
       </c>
       <c r="FO11" t="inlineStr">
@@ -48493,6 +48493,721 @@
       <c r="IF65" t="inlineStr"/>
       <c r="IG65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2181802828</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-10-20 16:43:24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Ритейл / офлайн-торговля</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>.NET/C#</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>модель данных</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>бизнес-правила/инварианты/вычисления</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>сложные алогоритмы</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>объём обрабатываемых данных</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>интеграции с внешними системами</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>поддержка работы с разнородной инфраструктурой</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>отказоустойчивость</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>надёжность</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Средний</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Не изменился</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Много</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>Средне</t>
+        </is>
+      </c>
+      <c r="AM66" t="inlineStr">
+        <is>
+          <t>Раз в 1-7 дней</t>
+        </is>
+      </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>работаю до сих пор</t>
+        </is>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>другое</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>релиз менеджер</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AZ66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="BA66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BB66" t="inlineStr">
+        <is>
+          <t>Часто</t>
+        </is>
+      </c>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>Технический долг</t>
+        </is>
+      </c>
+      <c r="BF66" t="inlineStr">
+        <is>
+          <t>Коммуникации</t>
+        </is>
+      </c>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="BK66" t="inlineStr"/>
+      <c r="BL66" t="inlineStr"/>
+      <c r="BM66" t="inlineStr"/>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>Усталость</t>
+        </is>
+      </c>
+      <c r="BO66" t="inlineStr"/>
+      <c r="BP66" t="inlineStr">
+        <is>
+          <t>Тревога</t>
+        </is>
+      </c>
+      <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="inlineStr">
+        <is>
+          <t>Страх</t>
+        </is>
+      </c>
+      <c r="BT66" t="inlineStr"/>
+      <c r="BU66" t="inlineStr">
+        <is>
+          <t>Ощущение технического долга</t>
+        </is>
+      </c>
+      <c r="BV66" t="inlineStr"/>
+      <c r="BW66" t="inlineStr"/>
+      <c r="BX66" t="inlineStr"/>
+      <c r="BY66" t="inlineStr"/>
+      <c r="BZ66" t="inlineStr"/>
+      <c r="CA66" t="inlineStr"/>
+      <c r="CB66" t="inlineStr"/>
+      <c r="CC66" t="inlineStr"/>
+      <c r="CD66" t="inlineStr">
+        <is>
+          <t>Модульный монолит</t>
+        </is>
+      </c>
+      <c r="CE66" t="inlineStr"/>
+      <c r="CF66" t="inlineStr"/>
+      <c r="CG66" t="inlineStr"/>
+      <c r="CH66" t="inlineStr"/>
+      <c r="CI66" t="inlineStr"/>
+      <c r="CJ66" t="inlineStr">
+        <is>
+          <t>75-99</t>
+        </is>
+      </c>
+      <c r="CK66" t="inlineStr">
+        <is>
+          <t>REST API второго уровня зрелости по Ричардсону (Json over HTTP)</t>
+        </is>
+      </c>
+      <c r="CL66" t="inlineStr"/>
+      <c r="CM66" t="inlineStr">
+        <is>
+          <t>Синхронная коммуникация через брокер сообщений (RabbitMQ, Kafka, ActiveMQ и т. д.)</t>
+        </is>
+      </c>
+      <c r="CN66" t="inlineStr"/>
+      <c r="CO66" t="inlineStr"/>
+      <c r="CP66" t="inlineStr"/>
+      <c r="CQ66" t="inlineStr"/>
+      <c r="CR66" t="inlineStr"/>
+      <c r="CS66" t="inlineStr">
+        <is>
+          <t>SOAP</t>
+        </is>
+      </c>
+      <c r="CT66" t="inlineStr">
+        <is>
+          <t>Через общую БД</t>
+        </is>
+      </c>
+      <c r="CU66" t="inlineStr">
+        <is>
+          <t>Через общую файловую систему</t>
+        </is>
+      </c>
+      <c r="CV66" t="inlineStr"/>
+      <c r="CW66" t="inlineStr"/>
+      <c r="CX66" t="inlineStr"/>
+      <c r="CY66" t="inlineStr"/>
+      <c r="CZ66" t="inlineStr"/>
+      <c r="DA66" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="DB66" t="inlineStr"/>
+      <c r="DC66" t="inlineStr"/>
+      <c r="DD66" t="inlineStr"/>
+      <c r="DE66" t="inlineStr"/>
+      <c r="DF66" t="inlineStr"/>
+      <c r="DG66" t="inlineStr"/>
+      <c r="DH66" t="inlineStr"/>
+      <c r="DI66" t="inlineStr">
+        <is>
+          <t>Redis</t>
+        </is>
+      </c>
+      <c r="DJ66" t="inlineStr"/>
+      <c r="DK66" t="inlineStr"/>
+      <c r="DL66" t="inlineStr"/>
+      <c r="DM66" t="inlineStr"/>
+      <c r="DN66" t="inlineStr"/>
+      <c r="DO66" t="inlineStr"/>
+      <c r="DP66" t="inlineStr"/>
+      <c r="DQ66" t="inlineStr"/>
+      <c r="DR66" t="inlineStr"/>
+      <c r="DS66" t="inlineStr"/>
+      <c r="DT66" t="inlineStr"/>
+      <c r="DU66" t="inlineStr"/>
+      <c r="DV66" t="inlineStr"/>
+      <c r="DW66" t="inlineStr"/>
+      <c r="DX66" t="inlineStr"/>
+      <c r="DY66" t="inlineStr"/>
+      <c r="DZ66" t="inlineStr"/>
+      <c r="EA66" t="inlineStr">
+        <is>
+          <t>Redis Streams</t>
+        </is>
+      </c>
+      <c r="EB66" t="inlineStr"/>
+      <c r="EC66" t="inlineStr"/>
+      <c r="ED66" t="inlineStr"/>
+      <c r="EE66" t="inlineStr">
+        <is>
+          <t>Явной архитектуры не было</t>
+        </is>
+      </c>
+      <c r="EF66" t="inlineStr">
+        <is>
+          <t>Явной архитектуры не было</t>
+        </is>
+      </c>
+      <c r="EG66" t="inlineStr"/>
+      <c r="EH66" t="inlineStr"/>
+      <c r="EI66" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="EJ66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="EK66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="EL66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="EM66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="EN66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="EO66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="EP66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="EQ66" t="inlineStr"/>
+      <c r="ER66" t="inlineStr"/>
+      <c r="ES66" t="inlineStr"/>
+      <c r="ET66" t="inlineStr"/>
+      <c r="EU66" t="inlineStr"/>
+      <c r="EV66" t="inlineStr"/>
+      <c r="EW66" t="inlineStr"/>
+      <c r="EX66" t="inlineStr"/>
+      <c r="EY66" t="inlineStr"/>
+      <c r="EZ66" t="inlineStr">
+        <is>
+          <t>Не применялись</t>
+        </is>
+      </c>
+      <c r="FA66" t="inlineStr"/>
+      <c r="FB66" t="inlineStr"/>
+      <c r="FC66" t="inlineStr">
+        <is>
+          <t>8-10</t>
+        </is>
+      </c>
+      <c r="FD66" t="inlineStr">
+        <is>
+          <t>11 и более</t>
+        </is>
+      </c>
+      <c r="FE66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="FF66" t="inlineStr"/>
+      <c r="FG66" t="inlineStr"/>
+      <c r="FH66" t="inlineStr">
+        <is>
+          <t>Плоская модель - структура таблица отражалась в структуры программы один в один</t>
+        </is>
+      </c>
+      <c r="FI66" t="inlineStr"/>
+      <c r="FJ66" t="inlineStr"/>
+      <c r="FK66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="FL66" t="inlineStr">
+        <is>
+          <t>16 и более</t>
+        </is>
+      </c>
+      <c r="FM66" t="inlineStr">
+        <is>
+          <t>16 и более</t>
+        </is>
+      </c>
+      <c r="FN66" t="inlineStr">
+        <is>
+          <t>ООП с анемичной доменной моделью (сущности содержат только геттеры/сеттеры, а бизнес-логика помещается в классы сервисов или их аналогов. Типично для классических проектов на Java/C#)</t>
+        </is>
+      </c>
+      <c r="FO66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="FP66" t="inlineStr">
+        <is>
+          <t>Редко</t>
+        </is>
+      </c>
+      <c r="FQ66" t="inlineStr"/>
+      <c r="FR66" t="inlineStr">
+        <is>
+          <t>Выполнение «сырых» SQL‑запросов с минимальной обёрткой, ручной маппинг (Spring JdbcTemplate, MyBatis, Dapper, PDO, node-pg, psycopg2 и т.п.)</t>
+        </is>
+      </c>
+      <c r="FS66" t="inlineStr">
+        <is>
+          <t>Да, но накатывались вручную</t>
+        </is>
+      </c>
+      <c r="FT66" t="inlineStr">
+        <is>
+          <t>Никогда</t>
+        </is>
+      </c>
+      <c r="FU66" t="inlineStr">
+        <is>
+          <t>Никогда</t>
+        </is>
+      </c>
+      <c r="FV66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="FW66" t="inlineStr">
+        <is>
+          <t>Да, все общие библиотеки и классы хранились в одном отдельном репозитории</t>
+        </is>
+      </c>
+      <c r="FX66" t="inlineStr">
+        <is>
+          <t>Не помню</t>
+        </is>
+      </c>
+      <c r="FY66" t="inlineStr">
+        <is>
+          <t>Не знаю/не помню</t>
+        </is>
+      </c>
+      <c r="FZ66" t="inlineStr">
+        <is>
+          <t>Не было</t>
+        </is>
+      </c>
+      <c r="GA66" t="inlineStr">
+        <is>
+          <t>Мало</t>
+        </is>
+      </c>
+      <c r="GB66" t="inlineStr">
+        <is>
+          <t>Другое</t>
+        </is>
+      </c>
+      <c r="GC66" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="GD66" t="inlineStr">
+        <is>
+          <t>Никогда (следовала правилу “Работает - не трожь”)</t>
+        </is>
+      </c>
+      <c r="GE66" t="inlineStr">
+        <is>
+          <t>Тесты не писались</t>
+        </is>
+      </c>
+      <c r="GF66" t="inlineStr"/>
+      <c r="GG66" t="inlineStr"/>
+      <c r="GH66" t="inlineStr"/>
+      <c r="GI66" t="inlineStr"/>
+      <c r="GJ66" t="inlineStr"/>
+      <c r="GK66" t="inlineStr"/>
+      <c r="GL66" t="inlineStr"/>
+      <c r="GM66" t="inlineStr"/>
+      <c r="GN66" t="inlineStr"/>
+      <c r="GO66" t="inlineStr"/>
+      <c r="GP66" t="inlineStr"/>
+      <c r="GQ66" t="inlineStr"/>
+      <c r="GR66" t="inlineStr"/>
+      <c r="GS66" t="inlineStr"/>
+      <c r="GT66" t="inlineStr"/>
+      <c r="GU66" t="inlineStr"/>
+      <c r="GV66" t="inlineStr"/>
+      <c r="GW66" t="inlineStr"/>
+      <c r="GX66" t="inlineStr"/>
+      <c r="GY66" t="inlineStr"/>
+      <c r="GZ66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="HA66" t="inlineStr">
+        <is>
+          <t>нет, его функции выполняли разработчики</t>
+        </is>
+      </c>
+      <c r="HB66" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="HC66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="HD66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="HE66" t="inlineStr">
+        <is>
+          <t>Минимальный</t>
+        </is>
+      </c>
+      <c r="HF66" t="inlineStr">
+        <is>
+          <t>Не поддерживался</t>
+        </is>
+      </c>
+      <c r="HG66" t="inlineStr">
+        <is>
+          <t>OneFlow</t>
+        </is>
+      </c>
+      <c r="HH66" t="inlineStr">
+        <is>
+          <t>Rebase</t>
+        </is>
+      </c>
+      <c r="HI66" t="inlineStr">
+        <is>
+          <t>Линейная (только Fast Forward без мёрж-коммита)</t>
+        </is>
+      </c>
+      <c r="HJ66" t="inlineStr"/>
+      <c r="HK66" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="HL66" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="HM66" t="inlineStr">
+        <is>
+          <t>Иногда</t>
+        </is>
+      </c>
+      <c r="HN66" t="inlineStr">
+        <is>
+          <t>Английский</t>
+        </is>
+      </c>
+      <c r="HO66" t="inlineStr">
+        <is>
+          <t>проект было невозможно запустить локально</t>
+        </is>
+      </c>
+      <c r="HP66" t="inlineStr"/>
+      <c r="HQ66" t="inlineStr"/>
+      <c r="HR66" t="inlineStr">
+        <is>
+          <t>Невозможно</t>
+        </is>
+      </c>
+      <c r="HS66" t="inlineStr"/>
+      <c r="HT66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="HU66" t="inlineStr"/>
+      <c r="HV66" t="inlineStr"/>
+      <c r="HW66" t="inlineStr"/>
+      <c r="HX66" t="inlineStr">
+        <is>
+          <t>standalone сервера</t>
+        </is>
+      </c>
+      <c r="HY66" t="inlineStr"/>
+      <c r="HZ66" t="inlineStr"/>
+      <c r="IA66" t="inlineStr"/>
+      <c r="IB66" t="inlineStr"/>
+      <c r="IC66" t="inlineStr">
+        <is>
+          <t>да, можно было легко понять что что-то идет не так</t>
+        </is>
+      </c>
+      <c r="ID66" t="inlineStr">
+        <is>
+          <t>да, доступ к логам был у команды разработки</t>
+        </is>
+      </c>
+      <c r="IE66" t="inlineStr">
+        <is>
+          <t>каждый месяц один раз и больше</t>
+        </is>
+      </c>
+      <c r="IF66" t="inlineStr">
+        <is>
+          <t>чаще всего было сложно понять что идет не так</t>
+        </is>
+      </c>
+      <c r="IG66" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
